--- a/data/Consumo_Freguesias.xlsx
+++ b/data/Consumo_Freguesias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9912BC12-AEF6-4D99-995D-CA2C47C861F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFA71AF-F94B-4081-B2ED-3D559C32298F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Freguesias</t>
   </si>
@@ -177,12 +177,15 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>www.lisboaenova.org | www.observatorios-lisboa.pt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +202,67 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF74BA9C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF74BA9C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF74BA9C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +287,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -472,11 +540,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF74BA9C"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,15 +562,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -505,12 +574,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,15 +583,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,8 +610,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -571,6 +661,154 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Agrupar 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B77AF0D-DF89-4843-9717-EFF76673D2DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="66675"/>
+          <a:ext cx="2733674" cy="590550"/>
+          <a:chOff x="571501" y="47625"/>
+          <a:chExt cx="2733674" cy="590550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Imagem 3" descr="Logo Observatórios Lisboa">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7D80DE-A6B5-4ABD-ACCD-CC5D7720F01A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:clrChange>
+              <a:clrFrom>
+                <a:srgbClr val="FFFFFF"/>
+              </a:clrFrom>
+              <a:clrTo>
+                <a:srgbClr val="FFFFFF">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:clrTo>
+            </a:clrChange>
+            <a:duotone>
+              <a:schemeClr val="bg2">
+                <a:shade val="45000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+              <a:prstClr val="white"/>
+            </a:duotone>
+            <a:extLst>
+              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a14:imgLayer r:embed="rId2">
+                    <a14:imgEffect>
+                      <a14:brightnessContrast bright="73000" contrast="100000"/>
+                    </a14:imgEffect>
+                  </a14:imgLayer>
+                </a14:imgProps>
+              </a:ext>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2105026" y="161927"/>
+            <a:ext cx="1200149" cy="398680"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Imagem 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34DAF85-7430-4AE9-8DB3-A0290FD4FF41}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="10000"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="571501" y="47625"/>
+            <a:ext cx="1235726" cy="590550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -870,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D87325-FA51-410A-972F-CB5F10F0BC22}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -891,796 +1129,811 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="20" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" s="23" customFormat="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" s="24" customFormat="1" ht="12.75">
+      <c r="A3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="15">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="28">
         <v>2017</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="15">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="28">
         <v>2018</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="10" t="s">
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I8" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="20" t="s">
+    <row r="9" spans="1:9" ht="17.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I9" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="14" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B10" s="13">
         <v>998.10400000000004</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C10" s="4">
         <v>700.17899999999997</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D10" s="4">
         <v>9412</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E10" s="14">
         <v>25</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F10" s="15">
         <v>922.70299999999997</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G10" s="4">
         <v>675.80000000000007</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H10" s="4">
         <v>9460</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I10" s="14">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="14" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B11" s="15">
         <v>1197.296</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C11" s="4">
         <v>624.69399999999996</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D11" s="4">
         <v>8490</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E11" s="14">
         <v>48</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F11" s="15">
         <v>1128.6300000000001</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G11" s="5">
         <v>612.49300000000005</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H11" s="5">
         <v>8563</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I11" s="14">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="14" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B12" s="15">
         <v>3672.482</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C12" s="4">
         <v>1796.2270000000001</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D12" s="4">
         <v>22196</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E12" s="14">
         <v>152</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F12" s="15">
         <v>3523.4389999999999</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G12" s="4">
         <v>1736.6990000000001</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H12" s="4">
         <v>22184</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I12" s="14">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="14" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B13" s="15">
         <v>1646.3630000000001</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C13" s="4">
         <v>1026.3399999999999</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D13" s="4">
         <v>12787</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E13" s="14">
         <v>49</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F13" s="15">
         <v>1574.3020000000001</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G13" s="5">
         <v>1001.431</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H13" s="5">
         <v>12817</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I13" s="14">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="14" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B14" s="15">
         <v>3608.6370000000002</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C14" s="4">
         <v>1955.568</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D14" s="4">
         <v>25869</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E14" s="14">
         <v>121</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F14" s="15">
         <v>3488.623</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G14" s="5">
         <v>1913.047</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H14" s="5">
         <v>25964</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I14" s="14">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="14" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B15" s="15">
         <v>4105.4070000000002</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C15" s="4">
         <v>1240.7190000000001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D15" s="4">
         <v>18601</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E15" s="14">
         <v>129</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F15" s="15">
         <v>3813.056</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G15" s="5">
         <v>1228.566</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H15" s="5">
         <v>18810</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I15" s="14">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="14" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B16" s="15">
         <v>676.846</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C16" s="4">
         <v>511.23700000000002</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D16" s="4">
         <v>6929</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E16" s="14">
         <v>20</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F16" s="15">
         <v>670.52700000000004</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G16" s="4">
         <v>507.14400000000001</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H16" s="4">
         <v>6948</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I16" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="14" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B17" s="15">
         <v>2511.3180000000002</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C17" s="4">
         <v>1017.1560000000001</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D17" s="4">
         <v>10277</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E17" s="14">
         <v>109</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F17" s="15">
         <v>2315.62</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G17" s="4">
         <v>959.46800000000007</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H17" s="4">
         <v>10305</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I17" s="14">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="14" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B18" s="15">
         <v>2725.395</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C18" s="4">
         <v>1749.47</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D18" s="4">
         <v>23726</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E18" s="14">
         <v>82</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F18" s="15">
         <v>2627.44</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G18" s="4">
         <v>1712.627</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H18" s="4">
         <v>23725</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I18" s="14">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="14" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B19" s="15">
         <v>1481.0319999999999</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C19" s="4">
         <v>996.57500000000005</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D19" s="4">
         <v>13472</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E19" s="14">
         <v>50</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F19" s="15">
         <v>1440.057</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G19" s="4">
         <v>962.75200000000007</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H19" s="4">
         <v>13378</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I19" s="14">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="14" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B20" s="15">
         <v>1647.086</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C20" s="4">
         <v>786.62800000000004</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D20" s="4">
         <v>10449</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E20" s="14">
         <v>92</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F20" s="15">
         <v>1551.0430000000001</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G20" s="4">
         <v>767.02200000000005</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H20" s="4">
         <v>10480</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I20" s="14">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="14" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B21" s="15">
         <v>1603.732</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C21" s="4">
         <v>793.12400000000002</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D21" s="4">
         <v>9265</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E21" s="14">
         <v>68</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F21" s="15">
         <v>1567.751</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G21" s="4">
         <v>766.04399999999998</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H21" s="4">
         <v>9257</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I21" s="14">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="14" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B22" s="15">
         <v>1887.952</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C22" s="4">
         <v>1147.548</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D22" s="4">
         <v>14871</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E22" s="14">
         <v>108</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F22" s="15">
         <v>1817.5240000000001</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G22" s="4">
         <v>1121.23</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H22" s="4">
         <v>14933</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I22" s="14">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="14" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B23" s="15">
         <v>3521.6550000000002</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C23" s="4">
         <v>2384.6</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="4">
         <v>25934</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E23" s="14">
         <v>203</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F23" s="15">
         <v>3401.55</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G23" s="4">
         <v>2312.163</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H23" s="4">
         <v>26042</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I23" s="14">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="14" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B24" s="15">
         <v>2273.451</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C24" s="4">
         <v>1436.876</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D24" s="4">
         <v>17102</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E24" s="14">
         <v>120</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F24" s="15">
         <v>2215.4830000000002</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G24" s="4">
         <v>1401.1420000000001</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H24" s="4">
         <v>17118</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I24" s="14">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="14" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B25" s="15">
         <v>1518.2460000000001</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C25" s="4">
         <v>638.94799999999998</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D25" s="4">
         <v>11446</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E25" s="14">
         <v>75</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F25" s="15">
         <v>1507.3140000000001</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G25" s="4">
         <v>636.851</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H25" s="4">
         <v>11519</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I25" s="14">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="14" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B26" s="15">
         <v>3053.3290000000002</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C26" s="4">
         <v>1451.54</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D26" s="4">
         <v>17629</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E26" s="14">
         <v>81</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F26" s="15">
         <v>2757.85</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G26" s="4">
         <v>1407.5360000000001</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H26" s="4">
         <v>17470</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I26" s="14">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="14" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B27" s="15">
         <v>2284.1019999999999</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C27" s="4">
         <v>1135.1959999999999</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D27" s="4">
         <v>12644</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E27" s="14">
         <v>1117</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F27" s="15">
         <v>2206.8319999999999</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G27" s="4">
         <v>1101.4750000000001</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H27" s="4">
         <v>12715</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I27" s="14">
         <v>1129</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="14" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B28" s="15">
         <v>1619.604</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C28" s="4">
         <v>1305.4960000000001</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D28" s="4">
         <v>17448</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E28" s="14">
         <v>37</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F28" s="15">
         <v>1570.14</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G28" s="4">
         <v>1267.325</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H28" s="4">
         <v>17449</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I28" s="14">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="14" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B29" s="15">
         <v>1150.31</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C29" s="4">
         <v>893.49199999999996</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D29" s="4">
         <v>10590</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E29" s="14">
         <v>26</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F29" s="15">
         <v>1127.3720000000001</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G29" s="4">
         <v>879.41600000000005</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H29" s="4">
         <v>10588</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I29" s="14">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="14" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B30" s="15">
         <v>2211</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C30" s="4">
         <v>649.73599999999999</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D30" s="4">
         <v>13233</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E30" s="14">
         <v>88</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F30" s="15">
         <v>2301.8420000000001</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G30" s="4">
         <v>650.38200000000006</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H30" s="4">
         <v>13690</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I30" s="14">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="14" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B31" s="15">
         <v>2500.5460000000003</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C31" s="4">
         <v>751.11</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D31" s="4">
         <v>12199</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E31" s="14">
         <v>148</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F31" s="15">
         <v>2448.855</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G31" s="4">
         <v>738.86699999999996</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H31" s="4">
         <v>12341</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I31" s="14">
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="14" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B32" s="15">
         <v>2856.904</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C32" s="4">
         <v>1778.1670000000001</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D32" s="4">
         <v>20941</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E32" s="14">
         <v>76</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F32" s="15">
         <v>2761.1610000000001</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G32" s="4">
         <v>1720.644</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H32" s="4">
         <v>21059</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I32" s="14">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A29" s="14" t="s">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B33" s="16">
         <v>1080.5740000000001</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C33" s="17">
         <v>717.47</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D33" s="17">
         <v>10563</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E33" s="18">
         <v>27</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F33" s="16">
         <v>1070.6030000000001</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G33" s="17">
         <v>703.18200000000002</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H33" s="17">
         <v>10616</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I33" s="18">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/Consumo_Freguesias.xlsx
+++ b/data/Consumo_Freguesias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFA71AF-F94B-4081-B2ED-3D559C32298F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A43756-4B1D-4237-9B34-BCB7414E517F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
   </bookViews>

--- a/data/Consumo_Freguesias.xlsx
+++ b/data/Consumo_Freguesias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizagua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A43756-4B1D-4237-9B34-BCB7414E517F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AD1DC0-7874-477D-B8BE-AB0F38A61B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Freguesias" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Freguesias</t>
   </si>
@@ -185,6 +187,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -554,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,6 +648,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,7 +705,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="2733674" cy="590550"/>
+          <a:ext cx="2809874" cy="590550"/>
           <a:chOff x="571501" y="47625"/>
           <a:chExt cx="2733674" cy="590550"/>
         </a:xfrm>
@@ -1108,42 +1119,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D87325-FA51-410A-972F-CB5F10F0BC22}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:13" s="20" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="19"/>
     </row>
-    <row r="2" spans="1:9" s="23" customFormat="1">
+    <row r="2" spans="1:13" s="23" customFormat="1">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
     </row>
-    <row r="3" spans="1:9" s="24" customFormat="1" ht="12.75">
+    <row r="3" spans="1:13" s="24" customFormat="1" ht="13.8">
       <c r="A3" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1156,10 +1170,10 @@
       <c r="F5" s="32"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1">
+    <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13">
       <c r="B7" s="28">
         <v>2017</v>
       </c>
@@ -1172,8 +1186,14 @@
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="28">
+        <v>2019</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="26" t="s">
         <v>0</v>
       </c>
@@ -1201,8 +1221,20 @@
       <c r="I8" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.25">
+      <c r="J8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.2">
       <c r="A9" s="27"/>
       <c r="B9" s="12" t="s">
         <v>27</v>
@@ -1228,8 +1260,20 @@
       <c r="I9" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
@@ -1257,8 +1301,18 @@
       <c r="I10" s="14">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="15">
+        <v>941.149</v>
+      </c>
+      <c r="K10" s="34">
+        <v>687.43499999999995</v>
+      </c>
+      <c r="L10" s="4">
+        <v>9469</v>
+      </c>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
@@ -1286,8 +1340,18 @@
       <c r="I11" s="14">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="15">
+        <v>1130.578</v>
+      </c>
+      <c r="K11" s="34">
+        <v>622.13599999999997</v>
+      </c>
+      <c r="L11" s="5">
+        <v>8576</v>
+      </c>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
@@ -1315,8 +1379,18 @@
       <c r="I12" s="14">
         <v>175</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="15">
+        <v>3452.0630000000001</v>
+      </c>
+      <c r="K12" s="34">
+        <v>1744.701</v>
+      </c>
+      <c r="L12" s="4">
+        <v>22197</v>
+      </c>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1344,8 +1418,18 @@
       <c r="I13" s="14">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="15">
+        <v>1596.7660000000001</v>
+      </c>
+      <c r="K13" s="34">
+        <v>1009.698</v>
+      </c>
+      <c r="L13" s="5">
+        <v>12791</v>
+      </c>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
@@ -1373,8 +1457,18 @@
       <c r="I14" s="14">
         <v>149</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="15">
+        <v>3462.0320000000002</v>
+      </c>
+      <c r="K14" s="34">
+        <v>1925.18</v>
+      </c>
+      <c r="L14" s="5">
+        <v>26036</v>
+      </c>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
@@ -1402,8 +1496,18 @@
       <c r="I15" s="14">
         <v>144</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="15">
+        <v>3948.277</v>
+      </c>
+      <c r="K15" s="34">
+        <v>1246.742</v>
+      </c>
+      <c r="L15" s="5">
+        <v>18825</v>
+      </c>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
@@ -1431,8 +1535,18 @@
       <c r="I16" s="14">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="15">
+        <v>676.202</v>
+      </c>
+      <c r="K16" s="34">
+        <v>512.19899999999996</v>
+      </c>
+      <c r="L16" s="4">
+        <v>6949</v>
+      </c>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="9" t="s">
         <v>8</v>
       </c>
@@ -1460,8 +1574,18 @@
       <c r="I17" s="14">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="15">
+        <v>2400.42</v>
+      </c>
+      <c r="K17" s="34">
+        <v>995.10599999999999</v>
+      </c>
+      <c r="L17" s="4">
+        <v>10376</v>
+      </c>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="9" t="s">
         <v>9</v>
       </c>
@@ -1489,8 +1613,18 @@
       <c r="I18" s="14">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="15">
+        <v>2631.8989999999999</v>
+      </c>
+      <c r="K18" s="34">
+        <v>1726.732</v>
+      </c>
+      <c r="L18" s="4">
+        <v>23851</v>
+      </c>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
@@ -1518,8 +1652,18 @@
       <c r="I19" s="14">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="15">
+        <v>1456.0119999999999</v>
+      </c>
+      <c r="K19" s="34">
+        <v>965.47699999999998</v>
+      </c>
+      <c r="L19" s="4">
+        <v>13394</v>
+      </c>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
@@ -1547,8 +1691,18 @@
       <c r="I20" s="14">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="15">
+        <v>1487.4659999999999</v>
+      </c>
+      <c r="K20" s="34">
+        <v>780.70600000000002</v>
+      </c>
+      <c r="L20" s="4">
+        <v>10534</v>
+      </c>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="9" t="s">
         <v>12</v>
       </c>
@@ -1576,8 +1730,18 @@
       <c r="I21" s="14">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="15">
+        <v>1587.4469999999999</v>
+      </c>
+      <c r="K21" s="34">
+        <v>767.822</v>
+      </c>
+      <c r="L21" s="4">
+        <v>9232</v>
+      </c>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -1605,8 +1769,18 @@
       <c r="I22" s="14">
         <v>116</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="15">
+        <v>1905.059</v>
+      </c>
+      <c r="K22" s="34">
+        <v>1131.7139999999999</v>
+      </c>
+      <c r="L22" s="4">
+        <v>15036</v>
+      </c>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="9" t="s">
         <v>14</v>
       </c>
@@ -1634,8 +1808,18 @@
       <c r="I23" s="14">
         <v>214</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="15">
+        <v>3447.8049999999998</v>
+      </c>
+      <c r="K23" s="34">
+        <v>2333.7919999999999</v>
+      </c>
+      <c r="L23" s="4">
+        <v>26179</v>
+      </c>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="9" t="s">
         <v>15</v>
       </c>
@@ -1663,8 +1847,18 @@
       <c r="I24" s="14">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="15">
+        <v>2280.3040000000001</v>
+      </c>
+      <c r="K24" s="34">
+        <v>1425.923</v>
+      </c>
+      <c r="L24" s="4">
+        <v>17127</v>
+      </c>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="9" t="s">
         <v>16</v>
       </c>
@@ -1692,8 +1886,18 @@
       <c r="I25" s="14">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="15">
+        <v>1538.9159999999999</v>
+      </c>
+      <c r="K25" s="34">
+        <v>622.56200000000001</v>
+      </c>
+      <c r="L25" s="4">
+        <v>11686</v>
+      </c>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="9" t="s">
         <v>17</v>
       </c>
@@ -1721,8 +1925,18 @@
       <c r="I26" s="14">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="15">
+        <v>2770.232</v>
+      </c>
+      <c r="K26" s="34">
+        <v>1418.502</v>
+      </c>
+      <c r="L26" s="4">
+        <v>17500</v>
+      </c>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="9" t="s">
         <v>18</v>
       </c>
@@ -1750,8 +1964,18 @@
       <c r="I27" s="14">
         <v>1129</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="15">
+        <v>2314.9740000000002</v>
+      </c>
+      <c r="K27" s="34">
+        <v>1118.279</v>
+      </c>
+      <c r="L27" s="4">
+        <v>12754</v>
+      </c>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="9" t="s">
         <v>19</v>
       </c>
@@ -1779,8 +2003,18 @@
       <c r="I28" s="14">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="15">
+        <v>1650.056</v>
+      </c>
+      <c r="K28" s="34">
+        <v>1316.4469999999999</v>
+      </c>
+      <c r="L28" s="4">
+        <v>17509</v>
+      </c>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="9" t="s">
         <v>20</v>
       </c>
@@ -1808,8 +2042,18 @@
       <c r="I29" s="14">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="15">
+        <v>1151.5029999999999</v>
+      </c>
+      <c r="K29" s="34">
+        <v>899.92399999999998</v>
+      </c>
+      <c r="L29" s="4">
+        <v>10584</v>
+      </c>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="9" t="s">
         <v>21</v>
       </c>
@@ -1837,8 +2081,18 @@
       <c r="I30" s="14">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="15">
+        <v>2360.9279999999999</v>
+      </c>
+      <c r="K30" s="34">
+        <v>667.75800000000004</v>
+      </c>
+      <c r="L30" s="4">
+        <v>13826</v>
+      </c>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
@@ -1866,8 +2120,18 @@
       <c r="I31" s="14">
         <v>165</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="15">
+        <v>2550.4589999999998</v>
+      </c>
+      <c r="K31" s="34">
+        <v>743.053</v>
+      </c>
+      <c r="L31" s="4">
+        <v>12423</v>
+      </c>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="9" t="s">
         <v>23</v>
       </c>
@@ -1895,8 +2159,18 @@
       <c r="I32" s="14">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1">
+      <c r="J32" s="15">
+        <v>2760.0569999999998</v>
+      </c>
+      <c r="K32" s="34">
+        <v>1725.8009999999999</v>
+      </c>
+      <c r="L32" s="4">
+        <v>21139</v>
+      </c>
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1">
       <c r="A33" s="9" t="s">
         <v>24</v>
       </c>
@@ -1924,13 +2198,24 @@
       <c r="I33" s="18">
         <v>35</v>
       </c>
+      <c r="J33" s="16">
+        <v>1079.194</v>
+      </c>
+      <c r="K33" s="35">
+        <v>714.47400000000005</v>
+      </c>
+      <c r="L33" s="17">
+        <v>10656</v>
+      </c>
+      <c r="M33" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="B5:G5"/>
+    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
